--- a/grupos/6AEV - Estadisticos 20242.xlsx
+++ b/grupos/6AEV - Estadisticos 20242.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="88">
   <si>
     <t>Materia</t>
   </si>
@@ -155,18 +155,18 @@
     <t>Martínez Sota Luis Rey</t>
   </si>
   <si>
+    <t>Martínez Castillo Columba</t>
+  </si>
+  <si>
+    <t>Gaspar Velazco Juan Francisco</t>
+  </si>
+  <si>
+    <t>Silva Villegas Mario</t>
+  </si>
+  <si>
     <t>Merino Altamira Violeta</t>
   </si>
   <si>
-    <t>Martínez Castillo Columba</t>
-  </si>
-  <si>
-    <t>Silva Villegas Mario</t>
-  </si>
-  <si>
-    <t>Gaspar Velazco Juan Francisco</t>
-  </si>
-  <si>
     <t>NC</t>
   </si>
   <si>
@@ -182,13 +182,28 @@
     <t>COBOS</t>
   </si>
   <si>
+    <t>LOBATO</t>
+  </si>
+  <si>
+    <t>CAMPOS</t>
+  </si>
+  <si>
+    <t>HERNANDEZ</t>
+  </si>
+  <si>
+    <t>JIMENEZ</t>
+  </si>
+  <si>
+    <t>VERA</t>
+  </si>
+  <si>
+    <t>MARQUEZ</t>
+  </si>
+  <si>
     <t>MENDOZA</t>
   </si>
   <si>
-    <t>JIMENEZ</t>
-  </si>
-  <si>
-    <t>MARQUEZ</t>
+    <t>MOLINA</t>
   </si>
   <si>
     <t>RUIZ</t>
@@ -200,49 +215,61 @@
     <t>XOTLANIHUA</t>
   </si>
   <si>
-    <t>MOLINA</t>
-  </si>
-  <si>
-    <t>ROSAS</t>
-  </si>
-  <si>
-    <t>TLAXCALA</t>
-  </si>
-  <si>
     <t>NOLASCO</t>
   </si>
   <si>
-    <t>HERNANDEZ</t>
+    <t>ANTONIO</t>
+  </si>
+  <si>
+    <t>CABRERA</t>
+  </si>
+  <si>
+    <t>ROJAS</t>
   </si>
   <si>
     <t>CIRUELO</t>
   </si>
   <si>
+    <t>GONZALEZ</t>
+  </si>
+  <si>
     <t>TIZA</t>
   </si>
   <si>
+    <t>DE JESUS</t>
+  </si>
+  <si>
     <t>ALFONSO</t>
   </si>
   <si>
     <t>COLOHUA</t>
   </si>
   <si>
-    <t>DE JESUS</t>
-  </si>
-  <si>
-    <t>SERRANO</t>
-  </si>
-  <si>
     <t>YOLET</t>
   </si>
   <si>
+    <t>FABIAN ALEJANDRO</t>
+  </si>
+  <si>
+    <t>MARCO</t>
+  </si>
+  <si>
+    <t>DAVID</t>
+  </si>
+  <si>
+    <t>ARACELY</t>
+  </si>
+  <si>
+    <t>ISRAEL</t>
+  </si>
+  <si>
+    <t>CRISTIAN OSMAR</t>
+  </si>
+  <si>
     <t>ERIK OMAR</t>
   </si>
   <si>
-    <t>ARACELY</t>
-  </si>
-  <si>
-    <t>CRISTIAN OSMAR</t>
+    <t>VICTOR MANUEL</t>
   </si>
   <si>
     <t>JOSUE GUSTAVO</t>
@@ -255,15 +282,6 @@
   </si>
   <si>
     <t>ERIK</t>
-  </si>
-  <si>
-    <t>VICTOR MANUEL</t>
-  </si>
-  <si>
-    <t>CRISTOPHER</t>
-  </si>
-  <si>
-    <t>OSMAR</t>
   </si>
 </sst>
 </file>
@@ -774,22 +792,22 @@
         <v>5</v>
       </c>
       <c r="H4">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="I4">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="J4">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="K4">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="L4">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="M4">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="N4">
         <v>-1</v>
@@ -810,10 +828,10 @@
         <v>-1</v>
       </c>
       <c r="T4">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="U4">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="V4">
         <v>5</v>
@@ -825,7 +843,7 @@
         <v>5</v>
       </c>
       <c r="Y4">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:25">
@@ -851,22 +869,22 @@
         <v>6</v>
       </c>
       <c r="H5">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="I5">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="J5">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="K5">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="L5">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="M5">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="N5">
         <v>-1</v>
@@ -890,7 +908,7 @@
         <v>5</v>
       </c>
       <c r="U5">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="V5">
         <v>5</v>
@@ -899,7 +917,7 @@
         <v>5</v>
       </c>
       <c r="X5">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="Y5">
         <v>6</v>
@@ -928,22 +946,22 @@
         <v>9</v>
       </c>
       <c r="H6">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="I6">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="J6">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="K6">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="L6">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="M6">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="N6">
         <v>-1</v>
@@ -964,10 +982,10 @@
         <v>-1</v>
       </c>
       <c r="T6">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="U6">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="V6">
         <v>7</v>
@@ -979,7 +997,7 @@
         <v>7</v>
       </c>
       <c r="Y6">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:25">
@@ -1005,22 +1023,22 @@
         <v>5</v>
       </c>
       <c r="H7">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="I7">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="J7">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="K7">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="L7">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="M7">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="N7">
         <v>-1</v>
@@ -1044,7 +1062,7 @@
         <v>7</v>
       </c>
       <c r="U7">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="V7">
         <v>6</v>
@@ -1053,10 +1071,10 @@
         <v>5</v>
       </c>
       <c r="X7">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="Y7">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:25">
@@ -1082,22 +1100,22 @@
         <v>6</v>
       </c>
       <c r="H8">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="I8">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="J8">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="K8">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="L8">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="M8">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="N8">
         <v>-1</v>
@@ -1118,13 +1136,13 @@
         <v>-1</v>
       </c>
       <c r="T8">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="U8">
         <v>7</v>
       </c>
       <c r="V8">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="W8">
         <v>7</v>
@@ -1133,7 +1151,7 @@
         <v>8</v>
       </c>
       <c r="Y8">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:25">
@@ -1159,22 +1177,22 @@
         <v>8</v>
       </c>
       <c r="H9">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="I9">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="J9">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="K9">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="L9">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="M9">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="N9">
         <v>-1</v>
@@ -1198,10 +1216,10 @@
         <v>8</v>
       </c>
       <c r="U9">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="V9">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="W9">
         <v>7</v>
@@ -1210,7 +1228,7 @@
         <v>7</v>
       </c>
       <c r="Y9">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:25">
@@ -1236,22 +1254,22 @@
         <v>5</v>
       </c>
       <c r="H10">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="I10">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="J10">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="K10">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="L10">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="M10">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="N10">
         <v>-1</v>
@@ -1275,19 +1293,19 @@
         <v>5</v>
       </c>
       <c r="U10">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="V10">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="W10">
         <v>5</v>
       </c>
       <c r="X10">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="Y10">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:25">
@@ -1313,22 +1331,22 @@
         <v>6</v>
       </c>
       <c r="H11">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="I11">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="J11">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="K11">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="L11">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="M11">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="N11">
         <v>-1</v>
@@ -1352,16 +1370,16 @@
         <v>5</v>
       </c>
       <c r="U11">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="V11">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="W11">
         <v>5</v>
       </c>
       <c r="X11">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="Y11">
         <v>6</v>
@@ -1390,22 +1408,22 @@
         <v>5</v>
       </c>
       <c r="H12">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="I12">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="J12">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="K12">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="L12">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="M12">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="N12">
         <v>-1</v>
@@ -1429,7 +1447,7 @@
         <v>5</v>
       </c>
       <c r="U12">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="V12">
         <v>5</v>
@@ -1438,10 +1456,10 @@
         <v>5</v>
       </c>
       <c r="X12">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="Y12">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="13" spans="1:25">
@@ -1467,22 +1485,22 @@
         <v>6</v>
       </c>
       <c r="H13">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="I13">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="J13">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="K13">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="L13">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="M13">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="N13">
         <v>-1</v>
@@ -1503,22 +1521,22 @@
         <v>-1</v>
       </c>
       <c r="T13">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="U13">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="V13">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="W13">
         <v>5</v>
       </c>
       <c r="X13">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="Y13">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="14" spans="1:25">
@@ -1544,22 +1562,22 @@
         <v>5</v>
       </c>
       <c r="H14">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="I14">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="J14">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="K14">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="L14">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="M14">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="N14">
         <v>-1</v>
@@ -1583,10 +1601,10 @@
         <v>5</v>
       </c>
       <c r="U14">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="V14">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="W14">
         <v>5</v>
@@ -1595,7 +1613,7 @@
         <v>6</v>
       </c>
       <c r="Y14">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="15" spans="1:25">
@@ -1621,22 +1639,22 @@
         <v>7</v>
       </c>
       <c r="H15">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="I15">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="J15">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="K15">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="L15">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="M15">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="N15">
         <v>-1</v>
@@ -1660,7 +1678,7 @@
         <v>5</v>
       </c>
       <c r="U15">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="V15">
         <v>5</v>
@@ -1672,7 +1690,7 @@
         <v>6</v>
       </c>
       <c r="Y15">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="16" spans="1:25">
@@ -1698,22 +1716,22 @@
         <v>7</v>
       </c>
       <c r="H16">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="I16">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="J16">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="K16">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="L16">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="M16">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="N16">
         <v>-1</v>
@@ -1734,10 +1752,10 @@
         <v>-1</v>
       </c>
       <c r="T16">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="U16">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="V16">
         <v>7</v>
@@ -1749,7 +1767,7 @@
         <v>6</v>
       </c>
       <c r="Y16">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="17" spans="1:25">
@@ -1775,22 +1793,22 @@
         <v>10</v>
       </c>
       <c r="H17">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="I17">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="J17">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="K17">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="L17">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="M17">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="N17">
         <v>-1</v>
@@ -1811,16 +1829,16 @@
         <v>-1</v>
       </c>
       <c r="T17">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="U17">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="V17">
         <v>8</v>
       </c>
       <c r="W17">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="X17">
         <v>7</v>
@@ -1852,22 +1870,22 @@
         <v>7</v>
       </c>
       <c r="H18">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="I18">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="J18">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="K18">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="L18">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="M18">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="N18">
         <v>-1</v>
@@ -1888,13 +1906,13 @@
         <v>-1</v>
       </c>
       <c r="T18">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="U18">
         <v>6</v>
       </c>
       <c r="V18">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="W18">
         <v>5</v>
@@ -1929,22 +1947,22 @@
         <v>8</v>
       </c>
       <c r="H19">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="I19">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="J19">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="K19">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="L19">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="M19">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="N19">
         <v>-1</v>
@@ -1968,19 +1986,19 @@
         <v>7</v>
       </c>
       <c r="U19">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="V19">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="W19">
         <v>6</v>
       </c>
       <c r="X19">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="Y19">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="20" spans="1:25">
@@ -2006,22 +2024,22 @@
         <v>8</v>
       </c>
       <c r="H20">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="I20">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="J20">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="K20">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="L20">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="M20">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="N20">
         <v>-1</v>
@@ -2045,19 +2063,19 @@
         <v>8</v>
       </c>
       <c r="U20">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="V20">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="W20">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="X20">
         <v>7</v>
       </c>
       <c r="Y20">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="21" spans="1:25">
@@ -2083,22 +2101,22 @@
         <v>5</v>
       </c>
       <c r="H21">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="I21">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="J21">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="K21">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="L21">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="M21">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="N21">
         <v>-1</v>
@@ -2122,19 +2140,19 @@
         <v>5</v>
       </c>
       <c r="U21">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="V21">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="W21">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="X21">
         <v>5</v>
       </c>
       <c r="Y21">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="22" spans="1:25">
@@ -2160,22 +2178,22 @@
         <v>5</v>
       </c>
       <c r="H22">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="I22">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="J22">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="K22">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="L22">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="M22">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="N22">
         <v>-1</v>
@@ -2196,10 +2214,10 @@
         <v>-1</v>
       </c>
       <c r="T22">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="U22">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="V22">
         <v>6</v>
@@ -2211,7 +2229,7 @@
         <v>6</v>
       </c>
       <c r="Y22">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="23" spans="1:25">
@@ -2237,22 +2255,22 @@
         <v>5</v>
       </c>
       <c r="H23">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="I23">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="J23">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="K23">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="L23">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="M23">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="N23">
         <v>-1</v>
@@ -2273,10 +2291,10 @@
         <v>-1</v>
       </c>
       <c r="T23">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="U23">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="V23">
         <v>6</v>
@@ -2285,10 +2303,10 @@
         <v>5</v>
       </c>
       <c r="X23">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="Y23">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -2427,7 +2445,7 @@
         <v>100</v>
       </c>
       <c r="H4">
-        <v>80</v>
+        <v>88.90000000000001</v>
       </c>
       <c r="I4">
         <v>100</v>
@@ -2439,13 +2457,13 @@
         <v>100</v>
       </c>
       <c r="L4">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="M4">
         <v>100</v>
       </c>
       <c r="N4">
-        <v>80</v>
+        <v>88.90000000000001</v>
       </c>
       <c r="O4">
         <v>100</v>
@@ -2457,7 +2475,7 @@
         <v>100</v>
       </c>
       <c r="R4">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="S4">
         <v>100</v>
@@ -2486,37 +2504,37 @@
         <v>100</v>
       </c>
       <c r="H5">
-        <v>80</v>
+        <v>88.90000000000001</v>
       </c>
       <c r="I5">
         <v>100</v>
       </c>
       <c r="J5">
-        <v>75</v>
+        <v>88.90000000000001</v>
       </c>
       <c r="K5">
         <v>100</v>
       </c>
       <c r="L5">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="M5">
         <v>100</v>
       </c>
       <c r="N5">
-        <v>80</v>
+        <v>88.90000000000001</v>
       </c>
       <c r="O5">
         <v>100</v>
       </c>
       <c r="P5">
-        <v>75</v>
+        <v>88.90000000000001</v>
       </c>
       <c r="Q5">
         <v>100</v>
       </c>
       <c r="R5">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="S5">
         <v>100</v>
@@ -2545,7 +2563,7 @@
         <v>100</v>
       </c>
       <c r="H6">
-        <v>84</v>
+        <v>91.09999999999999</v>
       </c>
       <c r="I6">
         <v>100</v>
@@ -2557,13 +2575,13 @@
         <v>100</v>
       </c>
       <c r="L6">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="M6">
         <v>100</v>
       </c>
       <c r="N6">
-        <v>84</v>
+        <v>91.09999999999999</v>
       </c>
       <c r="O6">
         <v>100</v>
@@ -2575,7 +2593,7 @@
         <v>100</v>
       </c>
       <c r="R6">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="S6">
         <v>100</v>
@@ -2610,13 +2628,13 @@
         <v>100</v>
       </c>
       <c r="J7">
-        <v>93.8</v>
+        <v>97.2</v>
       </c>
       <c r="K7">
         <v>100</v>
       </c>
       <c r="L7">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="M7">
         <v>100</v>
@@ -2628,13 +2646,13 @@
         <v>100</v>
       </c>
       <c r="P7">
-        <v>93.8</v>
+        <v>97.2</v>
       </c>
       <c r="Q7">
         <v>100</v>
       </c>
       <c r="R7">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="S7">
         <v>100</v>
@@ -2669,7 +2687,7 @@
         <v>100</v>
       </c>
       <c r="J8">
-        <v>93.8</v>
+        <v>97.2</v>
       </c>
       <c r="K8">
         <v>100</v>
@@ -2687,7 +2705,7 @@
         <v>100</v>
       </c>
       <c r="P8">
-        <v>93.8</v>
+        <v>97.2</v>
       </c>
       <c r="Q8">
         <v>100</v>
@@ -2722,13 +2740,13 @@
         <v>100</v>
       </c>
       <c r="H9">
-        <v>96</v>
+        <v>97.8</v>
       </c>
       <c r="I9">
         <v>100</v>
       </c>
       <c r="J9">
-        <v>93.8</v>
+        <v>97.2</v>
       </c>
       <c r="K9">
         <v>100</v>
@@ -2740,13 +2758,13 @@
         <v>100</v>
       </c>
       <c r="N9">
-        <v>96</v>
+        <v>97.8</v>
       </c>
       <c r="O9">
         <v>100</v>
       </c>
       <c r="P9">
-        <v>93.8</v>
+        <v>97.2</v>
       </c>
       <c r="Q9">
         <v>100</v>
@@ -2781,37 +2799,37 @@
         <v>100</v>
       </c>
       <c r="H10">
-        <v>80</v>
+        <v>88.90000000000001</v>
       </c>
       <c r="I10">
         <v>100</v>
       </c>
       <c r="J10">
-        <v>75</v>
+        <v>88.90000000000001</v>
       </c>
       <c r="K10">
         <v>100</v>
       </c>
       <c r="L10">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="M10">
         <v>100</v>
       </c>
       <c r="N10">
-        <v>80</v>
+        <v>88.90000000000001</v>
       </c>
       <c r="O10">
         <v>100</v>
       </c>
       <c r="P10">
-        <v>75</v>
+        <v>88.90000000000001</v>
       </c>
       <c r="Q10">
         <v>100</v>
       </c>
       <c r="R10">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="S10">
         <v>100</v>
@@ -2840,37 +2858,37 @@
         <v>100</v>
       </c>
       <c r="H11">
+        <v>88.90000000000001</v>
+      </c>
+      <c r="I11">
+        <v>100</v>
+      </c>
+      <c r="J11">
+        <v>88.90000000000001</v>
+      </c>
+      <c r="K11">
+        <v>100</v>
+      </c>
+      <c r="L11">
         <v>80</v>
       </c>
-      <c r="I11">
-        <v>100</v>
-      </c>
-      <c r="J11">
-        <v>75</v>
-      </c>
-      <c r="K11">
-        <v>100</v>
-      </c>
-      <c r="L11">
-        <v>84</v>
-      </c>
       <c r="M11">
         <v>100</v>
       </c>
       <c r="N11">
+        <v>88.90000000000001</v>
+      </c>
+      <c r="O11">
+        <v>100</v>
+      </c>
+      <c r="P11">
+        <v>88.90000000000001</v>
+      </c>
+      <c r="Q11">
+        <v>100</v>
+      </c>
+      <c r="R11">
         <v>80</v>
-      </c>
-      <c r="O11">
-        <v>100</v>
-      </c>
-      <c r="P11">
-        <v>75</v>
-      </c>
-      <c r="Q11">
-        <v>100</v>
-      </c>
-      <c r="R11">
-        <v>84</v>
       </c>
       <c r="S11">
         <v>100</v>
@@ -2899,37 +2917,37 @@
         <v>100</v>
       </c>
       <c r="H12">
-        <v>80</v>
+        <v>88.90000000000001</v>
       </c>
       <c r="I12">
         <v>100</v>
       </c>
       <c r="J12">
-        <v>68.8</v>
+        <v>86.09999999999999</v>
       </c>
       <c r="K12">
         <v>100</v>
       </c>
       <c r="L12">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="M12">
         <v>100</v>
       </c>
       <c r="N12">
-        <v>80</v>
+        <v>88.90000000000001</v>
       </c>
       <c r="O12">
         <v>100</v>
       </c>
       <c r="P12">
-        <v>68.8</v>
+        <v>86.09999999999999</v>
       </c>
       <c r="Q12">
         <v>100</v>
       </c>
       <c r="R12">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="S12">
         <v>100</v>
@@ -2958,37 +2976,37 @@
         <v>100</v>
       </c>
       <c r="H13">
-        <v>84</v>
+        <v>91.09999999999999</v>
       </c>
       <c r="I13">
         <v>100</v>
       </c>
       <c r="J13">
-        <v>93.8</v>
+        <v>97.2</v>
       </c>
       <c r="K13">
         <v>100</v>
       </c>
       <c r="L13">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="M13">
         <v>100</v>
       </c>
       <c r="N13">
-        <v>84</v>
+        <v>91.09999999999999</v>
       </c>
       <c r="O13">
         <v>100</v>
       </c>
       <c r="P13">
-        <v>93.8</v>
+        <v>97.2</v>
       </c>
       <c r="Q13">
         <v>100</v>
       </c>
       <c r="R13">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="S13">
         <v>100</v>
@@ -3017,37 +3035,37 @@
         <v>100</v>
       </c>
       <c r="H14">
-        <v>80</v>
+        <v>88.90000000000001</v>
       </c>
       <c r="I14">
         <v>100</v>
       </c>
       <c r="J14">
-        <v>81.3</v>
+        <v>91.7</v>
       </c>
       <c r="K14">
         <v>100</v>
       </c>
       <c r="L14">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="M14">
         <v>100</v>
       </c>
       <c r="N14">
-        <v>80</v>
+        <v>88.90000000000001</v>
       </c>
       <c r="O14">
         <v>100</v>
       </c>
       <c r="P14">
-        <v>81.3</v>
+        <v>91.7</v>
       </c>
       <c r="Q14">
         <v>100</v>
       </c>
       <c r="R14">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="S14">
         <v>100</v>
@@ -3076,37 +3094,37 @@
         <v>100</v>
       </c>
       <c r="H15">
-        <v>80</v>
+        <v>88.90000000000001</v>
       </c>
       <c r="I15">
         <v>100</v>
       </c>
       <c r="J15">
-        <v>75</v>
+        <v>88.90000000000001</v>
       </c>
       <c r="K15">
         <v>100</v>
       </c>
       <c r="L15">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="M15">
         <v>100</v>
       </c>
       <c r="N15">
-        <v>80</v>
+        <v>88.90000000000001</v>
       </c>
       <c r="O15">
         <v>100</v>
       </c>
       <c r="P15">
-        <v>75</v>
+        <v>88.90000000000001</v>
       </c>
       <c r="Q15">
         <v>100</v>
       </c>
       <c r="R15">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="S15">
         <v>100</v>
@@ -3135,7 +3153,7 @@
         <v>100</v>
       </c>
       <c r="H16">
-        <v>84</v>
+        <v>91.09999999999999</v>
       </c>
       <c r="I16">
         <v>100</v>
@@ -3153,7 +3171,7 @@
         <v>100</v>
       </c>
       <c r="N16">
-        <v>84</v>
+        <v>91.09999999999999</v>
       </c>
       <c r="O16">
         <v>100</v>
@@ -3200,13 +3218,13 @@
         <v>100</v>
       </c>
       <c r="J17">
-        <v>93.8</v>
+        <v>97.2</v>
       </c>
       <c r="K17">
         <v>100</v>
       </c>
       <c r="L17">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="M17">
         <v>100</v>
@@ -3218,13 +3236,13 @@
         <v>100</v>
       </c>
       <c r="P17">
-        <v>93.8</v>
+        <v>97.2</v>
       </c>
       <c r="Q17">
         <v>100</v>
       </c>
       <c r="R17">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="S17">
         <v>100</v>
@@ -3253,37 +3271,37 @@
         <v>100</v>
       </c>
       <c r="H18">
+        <v>91.09999999999999</v>
+      </c>
+      <c r="I18">
+        <v>100</v>
+      </c>
+      <c r="J18">
+        <v>97.2</v>
+      </c>
+      <c r="K18">
+        <v>100</v>
+      </c>
+      <c r="L18">
         <v>84</v>
       </c>
-      <c r="I18">
-        <v>100</v>
-      </c>
-      <c r="J18">
-        <v>93.8</v>
-      </c>
-      <c r="K18">
-        <v>100</v>
-      </c>
-      <c r="L18">
-        <v>88</v>
-      </c>
       <c r="M18">
         <v>100</v>
       </c>
       <c r="N18">
+        <v>91.09999999999999</v>
+      </c>
+      <c r="O18">
+        <v>100</v>
+      </c>
+      <c r="P18">
+        <v>97.2</v>
+      </c>
+      <c r="Q18">
+        <v>100</v>
+      </c>
+      <c r="R18">
         <v>84</v>
-      </c>
-      <c r="O18">
-        <v>100</v>
-      </c>
-      <c r="P18">
-        <v>93.8</v>
-      </c>
-      <c r="Q18">
-        <v>100</v>
-      </c>
-      <c r="R18">
-        <v>88</v>
       </c>
       <c r="S18">
         <v>100</v>
@@ -3318,13 +3336,13 @@
         <v>100</v>
       </c>
       <c r="J19">
-        <v>93.8</v>
+        <v>97.2</v>
       </c>
       <c r="K19">
         <v>100</v>
       </c>
       <c r="L19">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="M19">
         <v>100</v>
@@ -3336,13 +3354,13 @@
         <v>100</v>
       </c>
       <c r="P19">
-        <v>93.8</v>
+        <v>97.2</v>
       </c>
       <c r="Q19">
         <v>100</v>
       </c>
       <c r="R19">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="S19">
         <v>100</v>
@@ -3371,37 +3389,37 @@
         <v>100</v>
       </c>
       <c r="H20">
-        <v>92</v>
+        <v>95.59999999999999</v>
       </c>
       <c r="I20">
         <v>100</v>
       </c>
       <c r="J20">
-        <v>93.8</v>
+        <v>97.2</v>
       </c>
       <c r="K20">
         <v>100</v>
       </c>
       <c r="L20">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="M20">
         <v>100</v>
       </c>
       <c r="N20">
-        <v>92</v>
+        <v>95.59999999999999</v>
       </c>
       <c r="O20">
         <v>100</v>
       </c>
       <c r="P20">
-        <v>93.8</v>
+        <v>97.2</v>
       </c>
       <c r="Q20">
         <v>100</v>
       </c>
       <c r="R20">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="S20">
         <v>100</v>
@@ -3430,37 +3448,37 @@
         <v>100</v>
       </c>
       <c r="H21">
-        <v>80</v>
+        <v>88.90000000000001</v>
       </c>
       <c r="I21">
         <v>100</v>
       </c>
       <c r="J21">
-        <v>81.3</v>
+        <v>91.7</v>
       </c>
       <c r="K21">
         <v>100</v>
       </c>
       <c r="L21">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="M21">
         <v>100</v>
       </c>
       <c r="N21">
-        <v>80</v>
+        <v>88.90000000000001</v>
       </c>
       <c r="O21">
         <v>100</v>
       </c>
       <c r="P21">
-        <v>81.3</v>
+        <v>91.7</v>
       </c>
       <c r="Q21">
         <v>100</v>
       </c>
       <c r="R21">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="S21">
         <v>100</v>
@@ -3489,37 +3507,37 @@
         <v>100</v>
       </c>
       <c r="H22">
-        <v>84</v>
+        <v>91.09999999999999</v>
       </c>
       <c r="I22">
         <v>100</v>
       </c>
       <c r="J22">
-        <v>93.8</v>
+        <v>97.2</v>
       </c>
       <c r="K22">
         <v>100</v>
       </c>
       <c r="L22">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="M22">
         <v>100</v>
       </c>
       <c r="N22">
-        <v>84</v>
+        <v>91.09999999999999</v>
       </c>
       <c r="O22">
         <v>100</v>
       </c>
       <c r="P22">
-        <v>93.8</v>
+        <v>97.2</v>
       </c>
       <c r="Q22">
         <v>100</v>
       </c>
       <c r="R22">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="S22">
         <v>100</v>
@@ -3548,37 +3566,37 @@
         <v>100</v>
       </c>
       <c r="H23">
-        <v>92</v>
+        <v>95.59999999999999</v>
       </c>
       <c r="I23">
         <v>100</v>
       </c>
       <c r="J23">
-        <v>93.8</v>
+        <v>97.2</v>
       </c>
       <c r="K23">
         <v>100</v>
       </c>
       <c r="L23">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="M23">
         <v>100</v>
       </c>
       <c r="N23">
-        <v>92</v>
+        <v>95.59999999999999</v>
       </c>
       <c r="O23">
         <v>100</v>
       </c>
       <c r="P23">
-        <v>93.8</v>
+        <v>97.2</v>
       </c>
       <c r="Q23">
         <v>100</v>
       </c>
       <c r="R23">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="S23">
         <v>100</v>
@@ -3650,19 +3668,19 @@
         <v>20</v>
       </c>
       <c r="D2">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E2">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F2" s="2">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="G2" s="2">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="H2">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -3673,7 +3691,7 @@
     </row>
     <row r="3" spans="1:10">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B3" t="s">
         <v>45</v>
@@ -3682,19 +3700,19 @@
         <v>20</v>
       </c>
       <c r="D3">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E3">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F3" s="2">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="G3" s="2">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="H3">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -3705,28 +3723,28 @@
     </row>
     <row r="4" spans="1:10">
       <c r="A4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C4">
         <v>20</v>
       </c>
       <c r="D4">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E4">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F4" s="2">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="G4" s="2">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="H4">
-        <v>6.4</v>
+        <v>6</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -3737,28 +3755,28 @@
     </row>
     <row r="5" spans="1:10">
       <c r="A5" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C5">
         <v>20</v>
       </c>
       <c r="D5">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="E5">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F5" s="2">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="G5" s="2">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="H5">
-        <v>6.8</v>
+        <v>6.5</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -3769,28 +3787,28 @@
     </row>
     <row r="6" spans="1:10">
       <c r="A6" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C6">
         <v>20</v>
       </c>
       <c r="D6">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="E6">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="F6" s="2">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="G6" s="2">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="H6">
-        <v>6</v>
+        <v>7.3</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -3801,7 +3819,7 @@
     </row>
     <row r="7" spans="1:10">
       <c r="A7" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B7" t="s">
         <v>48</v>
@@ -3810,19 +3828,19 @@
         <v>20</v>
       </c>
       <c r="D7">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="E7">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F7" s="2">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="G7" s="2">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="H7">
-        <v>6.2</v>
+        <v>7</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -3875,7 +3893,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G31"/>
+  <dimension ref="A1:G32"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3916,16 +3934,16 @@
         <v>53</v>
       </c>
       <c r="C2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D2" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="E2" t="s">
         <v>5</v>
       </c>
       <c r="F2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G2">
         <v>5</v>
@@ -3939,16 +3957,16 @@
         <v>53</v>
       </c>
       <c r="C3" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D3" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="E3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F3" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="G3">
         <v>5</v>
@@ -3962,16 +3980,16 @@
         <v>53</v>
       </c>
       <c r="C4" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D4" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="E4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F4" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="G4">
         <v>5</v>
@@ -3985,16 +4003,16 @@
         <v>53</v>
       </c>
       <c r="C5" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D5" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="E5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F5" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="G5">
         <v>5</v>
@@ -4002,22 +4020,22 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6">
-        <v>22330051920192</v>
+        <v>22330051920413</v>
       </c>
       <c r="B6" t="s">
         <v>54</v>
       </c>
       <c r="C6" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D6" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="E6" t="s">
         <v>5</v>
       </c>
       <c r="F6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G6">
         <v>5</v>
@@ -4025,22 +4043,22 @@
     </row>
     <row r="7" spans="1:7">
       <c r="A7">
-        <v>22330051920192</v>
+        <v>22330051920413</v>
       </c>
       <c r="B7" t="s">
         <v>54</v>
       </c>
       <c r="C7" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D7" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="E7" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F7" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="G7">
         <v>5</v>
@@ -4048,16 +4066,16 @@
     </row>
     <row r="8" spans="1:7">
       <c r="A8">
-        <v>22330051920192</v>
+        <v>22330051920413</v>
       </c>
       <c r="B8" t="s">
         <v>54</v>
       </c>
       <c r="C8" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D8" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="E8" t="s">
         <v>8</v>
@@ -4071,22 +4089,22 @@
     </row>
     <row r="9" spans="1:7">
       <c r="A9">
-        <v>22330051920192</v>
+        <v>22330051920413</v>
       </c>
       <c r="B9" t="s">
         <v>54</v>
       </c>
       <c r="C9" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D9" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="E9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F9" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G9">
         <v>5</v>
@@ -4094,22 +4112,22 @@
     </row>
     <row r="10" spans="1:7">
       <c r="A10">
-        <v>22330051920190</v>
+        <v>22330051920177</v>
       </c>
       <c r="B10" t="s">
         <v>55</v>
       </c>
       <c r="C10" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D10" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="E10" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G10">
         <v>5</v>
@@ -4117,22 +4135,22 @@
     </row>
     <row r="11" spans="1:7">
       <c r="A11">
-        <v>22330051920190</v>
+        <v>22330051920177</v>
       </c>
       <c r="B11" t="s">
         <v>55</v>
       </c>
       <c r="C11" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D11" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="E11" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G11">
         <v>5</v>
@@ -4140,22 +4158,22 @@
     </row>
     <row r="12" spans="1:7">
       <c r="A12">
-        <v>22330051920190</v>
+        <v>22330051920177</v>
       </c>
       <c r="B12" t="s">
         <v>55</v>
       </c>
       <c r="C12" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D12" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="E12" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F12" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="G12">
         <v>5</v>
@@ -4163,19 +4181,19 @@
     </row>
     <row r="13" spans="1:7">
       <c r="A13">
-        <v>22330051920359</v>
+        <v>22330051920188</v>
       </c>
       <c r="B13" t="s">
         <v>56</v>
       </c>
       <c r="C13" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D13" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="E13" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F13" t="s">
         <v>45</v>
@@ -4186,22 +4204,22 @@
     </row>
     <row r="14" spans="1:7">
       <c r="A14">
-        <v>22330051920359</v>
+        <v>22330051920188</v>
       </c>
       <c r="B14" t="s">
         <v>56</v>
       </c>
       <c r="C14" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D14" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="E14" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F14" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="G14">
         <v>5</v>
@@ -4209,22 +4227,22 @@
     </row>
     <row r="15" spans="1:7">
       <c r="A15">
-        <v>22330051920359</v>
+        <v>22330051920188</v>
       </c>
       <c r="B15" t="s">
         <v>56</v>
       </c>
       <c r="C15" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D15" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="E15" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F15" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="G15">
         <v>5</v>
@@ -4232,22 +4250,22 @@
     </row>
     <row r="16" spans="1:7">
       <c r="A16">
-        <v>22330051920356</v>
+        <v>22330051920190</v>
       </c>
       <c r="B16" t="s">
         <v>57</v>
       </c>
       <c r="C16" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D16" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="E16" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F16" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G16">
         <v>5</v>
@@ -4255,16 +4273,16 @@
     </row>
     <row r="17" spans="1:7">
       <c r="A17">
-        <v>22330051920356</v>
+        <v>22330051920190</v>
       </c>
       <c r="B17" t="s">
         <v>57</v>
       </c>
       <c r="C17" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D17" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="E17" t="s">
         <v>8</v>
@@ -4278,22 +4296,22 @@
     </row>
     <row r="18" spans="1:7">
       <c r="A18">
-        <v>22330051920356</v>
+        <v>22330051920190</v>
       </c>
       <c r="B18" t="s">
         <v>57</v>
       </c>
       <c r="C18" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D18" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="E18" t="s">
         <v>9</v>
       </c>
       <c r="F18" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G18">
         <v>5</v>
@@ -4301,22 +4319,22 @@
     </row>
     <row r="19" spans="1:7">
       <c r="A19">
-        <v>22330051920180</v>
+        <v>22330051920371</v>
       </c>
       <c r="B19" t="s">
         <v>58</v>
       </c>
       <c r="C19" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="D19" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="E19" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F19" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G19">
         <v>5</v>
@@ -4324,22 +4342,22 @@
     </row>
     <row r="20" spans="1:7">
       <c r="A20">
-        <v>22330051920180</v>
+        <v>22330051920371</v>
       </c>
       <c r="B20" t="s">
         <v>58</v>
       </c>
       <c r="C20" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="D20" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="E20" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F20" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="G20">
         <v>5</v>
@@ -4347,22 +4365,22 @@
     </row>
     <row r="21" spans="1:7">
       <c r="A21">
-        <v>22330051920180</v>
+        <v>22330051920371</v>
       </c>
       <c r="B21" t="s">
         <v>58</v>
       </c>
       <c r="C21" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="D21" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="E21" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F21" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G21">
         <v>5</v>
@@ -4370,19 +4388,19 @@
     </row>
     <row r="22" spans="1:7">
       <c r="A22">
-        <v>22330051920201</v>
+        <v>22330051920359</v>
       </c>
       <c r="B22" t="s">
         <v>59</v>
       </c>
       <c r="C22" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="D22" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="E22" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F22" t="s">
         <v>45</v>
@@ -4393,16 +4411,16 @@
     </row>
     <row r="23" spans="1:7">
       <c r="A23">
-        <v>22330051920201</v>
+        <v>22330051920359</v>
       </c>
       <c r="B23" t="s">
         <v>59</v>
       </c>
       <c r="C23" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="D23" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="E23" t="s">
         <v>8</v>
@@ -4416,19 +4434,19 @@
     </row>
     <row r="24" spans="1:7">
       <c r="A24">
-        <v>22330051920201</v>
+        <v>22330051920192</v>
       </c>
       <c r="B24" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C24" t="s">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="D24" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="E24" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F24" t="s">
         <v>45</v>
@@ -4439,22 +4457,22 @@
     </row>
     <row r="25" spans="1:7">
       <c r="A25">
-        <v>22330051920202</v>
+        <v>22330051920192</v>
       </c>
       <c r="B25" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C25" t="s">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="D25" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="E25" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F25" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G25">
         <v>5</v>
@@ -4462,22 +4480,22 @@
     </row>
     <row r="26" spans="1:7">
       <c r="A26">
-        <v>22330051920202</v>
+        <v>22330051920193</v>
       </c>
       <c r="B26" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C26" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="D26" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="E26" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F26" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G26">
         <v>5</v>
@@ -4485,22 +4503,22 @@
     </row>
     <row r="27" spans="1:7">
       <c r="A27">
-        <v>22330051920202</v>
+        <v>22330051920193</v>
       </c>
       <c r="B27" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C27" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="D27" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="E27" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F27" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="G27">
         <v>5</v>
@@ -4508,22 +4526,22 @@
     </row>
     <row r="28" spans="1:7">
       <c r="A28">
-        <v>22330051920193</v>
+        <v>22330051920356</v>
       </c>
       <c r="B28" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C28" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="D28" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="E28" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F28" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G28">
         <v>5</v>
@@ -4531,22 +4549,22 @@
     </row>
     <row r="29" spans="1:7">
       <c r="A29">
-        <v>22330051920193</v>
+        <v>22330051920356</v>
       </c>
       <c r="B29" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C29" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="D29" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="E29" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F29" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G29">
         <v>5</v>
@@ -4554,22 +4572,22 @@
     </row>
     <row r="30" spans="1:7">
       <c r="A30">
-        <v>22330051920358</v>
+        <v>22330051920180</v>
       </c>
       <c r="B30" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C30" t="s">
-        <v>70</v>
+        <v>56</v>
       </c>
       <c r="D30" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="E30" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F30" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G30">
         <v>5</v>
@@ -4577,24 +4595,47 @@
     </row>
     <row r="31" spans="1:7">
       <c r="A31">
-        <v>22330051920363</v>
+        <v>22330051920201</v>
       </c>
       <c r="B31" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C31" t="s">
-        <v>59</v>
+        <v>74</v>
       </c>
       <c r="D31" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="E31" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F31" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G31">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32">
+        <v>22330051920202</v>
+      </c>
+      <c r="B32" t="s">
+        <v>64</v>
+      </c>
+      <c r="C32" t="s">
+        <v>74</v>
+      </c>
+      <c r="D32" t="s">
+        <v>87</v>
+      </c>
+      <c r="E32" t="s">
+        <v>8</v>
+      </c>
+      <c r="F32" t="s">
+        <v>44</v>
+      </c>
+      <c r="G32">
         <v>5</v>
       </c>
     </row>
